--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H2">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I2">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J2">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N2">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O2">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P2">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q2">
-        <v>24.58869334092456</v>
+        <v>1.635626285694556</v>
       </c>
       <c r="R2">
-        <v>221.298240068321</v>
+        <v>14.720636571251</v>
       </c>
       <c r="S2">
-        <v>0.184544328917133</v>
+        <v>0.04092193817783978</v>
       </c>
       <c r="T2">
-        <v>0.1845443289171329</v>
+        <v>0.04092193817783978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H3">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I3">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J3">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N3">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O3">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P3">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q3">
-        <v>1.854255235752111</v>
+        <v>0.8767913626601112</v>
       </c>
       <c r="R3">
-        <v>16.688297121769</v>
+        <v>7.891122263941</v>
       </c>
       <c r="S3">
-        <v>0.01391665199034471</v>
+        <v>0.02193655253125552</v>
       </c>
       <c r="T3">
-        <v>0.01391665199034471</v>
+        <v>0.02193655253125552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H4">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I4">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J4">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N4">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O4">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P4">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q4">
-        <v>0.1560118822917778</v>
+        <v>0.08916728220388889</v>
       </c>
       <c r="R4">
-        <v>1.404106940626</v>
+        <v>0.8025055398349999</v>
       </c>
       <c r="S4">
-        <v>0.001170908422072024</v>
+        <v>0.002230887362074925</v>
       </c>
       <c r="T4">
-        <v>0.001170908422072024</v>
+        <v>0.002230887362074925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.249087666666667</v>
+        <v>0.5906356666666667</v>
       </c>
       <c r="H5">
-        <v>3.747263</v>
+        <v>1.771907</v>
       </c>
       <c r="I5">
-        <v>0.3661911890049114</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="J5">
-        <v>0.3661911890049113</v>
+        <v>0.294823169192623</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N5">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O5">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P5">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q5">
-        <v>22.19236736684356</v>
+        <v>9.182327235761111</v>
       </c>
       <c r="R5">
-        <v>199.731306301592</v>
+        <v>82.64094512185</v>
       </c>
       <c r="S5">
-        <v>0.1665592996753617</v>
+        <v>0.2297337911214528</v>
       </c>
       <c r="T5">
-        <v>0.1665592996753617</v>
+        <v>0.2297337911214528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.744019</v>
       </c>
       <c r="I6">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J6">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N6">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O6">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P6">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q6">
-        <v>11.44385872348589</v>
+        <v>1.609883204451889</v>
       </c>
       <c r="R6">
-        <v>102.994728511373</v>
+        <v>14.488948840067</v>
       </c>
       <c r="S6">
-        <v>0.08588903847254097</v>
+        <v>0.04027786881533735</v>
       </c>
       <c r="T6">
-        <v>0.08588903847254095</v>
+        <v>0.04027786881533736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.744019</v>
       </c>
       <c r="I7">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J7">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N7">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O7">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P7">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q7">
-        <v>0.8629915653107777</v>
+        <v>0.8629915653107778</v>
       </c>
       <c r="R7">
-        <v>7.766924087796999</v>
+        <v>7.766924087797001</v>
       </c>
       <c r="S7">
-        <v>0.006476968786965042</v>
+        <v>0.02159129367907442</v>
       </c>
       <c r="T7">
-        <v>0.006476968786965042</v>
+        <v>0.02159129367907442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.744019</v>
       </c>
       <c r="I8">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J8">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N8">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O8">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P8">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q8">
-        <v>0.07260971192644444</v>
+        <v>0.08776388057722223</v>
       </c>
       <c r="R8">
-        <v>0.653487407338</v>
+        <v>0.7898749251950001</v>
       </c>
       <c r="S8">
-        <v>0.0005449541532989891</v>
+        <v>0.002195775481624345</v>
       </c>
       <c r="T8">
-        <v>0.000544954153298989</v>
+        <v>0.002195775481624346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.744019</v>
       </c>
       <c r="I9">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="J9">
-        <v>0.1704295618581232</v>
+        <v>0.2901829546991739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N9">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O9">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P9">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q9">
-        <v>10.32858124523289</v>
+        <v>9.037806816827779</v>
       </c>
       <c r="R9">
-        <v>92.957231207096</v>
+        <v>81.34026135145001</v>
       </c>
       <c r="S9">
-        <v>0.07751860044531826</v>
+        <v>0.2261180167231378</v>
       </c>
       <c r="T9">
-        <v>0.07751860044531825</v>
+        <v>0.2261180167231378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H10">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I10">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J10">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N10">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O10">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P10">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q10">
-        <v>17.24159954242156</v>
+        <v>2.263197892002667</v>
       </c>
       <c r="R10">
-        <v>155.1743958817941</v>
+        <v>20.368781028024</v>
       </c>
       <c r="S10">
-        <v>0.1294025417657469</v>
+        <v>0.05662323052079251</v>
       </c>
       <c r="T10">
-        <v>0.1294025417657469</v>
+        <v>0.05662323052079251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H11">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I11">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J11">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N11">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O11">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P11">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q11">
-        <v>1.300204357385111</v>
+        <v>1.213206452509333</v>
       </c>
       <c r="R11">
-        <v>11.701839216466</v>
+        <v>10.918858072584</v>
       </c>
       <c r="S11">
-        <v>0.009758360774275499</v>
+        <v>0.03035336365083003</v>
       </c>
       <c r="T11">
-        <v>0.009758360774275499</v>
+        <v>0.03035336365083003</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H12">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I12">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J12">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N12">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O12">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P12">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q12">
-        <v>0.1093955811737778</v>
+        <v>0.1233797762266667</v>
       </c>
       <c r="R12">
-        <v>0.9845602305640001</v>
+        <v>1.11041798604</v>
       </c>
       <c r="S12">
-        <v>0.0008210413556467357</v>
+        <v>0.003086854019956868</v>
       </c>
       <c r="T12">
-        <v>0.0008210413556467355</v>
+        <v>0.003086854019956868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8758606666666667</v>
+        <v>0.817256</v>
       </c>
       <c r="H13">
-        <v>2.627582</v>
+        <v>2.451768</v>
       </c>
       <c r="I13">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="J13">
-        <v>0.2567733774725454</v>
+        <v>0.4079435387325965</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N13">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O13">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P13">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q13">
-        <v>15.56129501198756</v>
+        <v>12.70548402493333</v>
       </c>
       <c r="R13">
-        <v>140.051655107888</v>
+        <v>114.3493562244</v>
       </c>
       <c r="S13">
-        <v>0.1167914335768763</v>
+        <v>0.3178800905410171</v>
       </c>
       <c r="T13">
-        <v>0.1167914335768763</v>
+        <v>0.3178800905410171</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H14">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I14">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J14">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.68532233333334</v>
+        <v>2.769264333333334</v>
       </c>
       <c r="N14">
-        <v>59.05596700000001</v>
+        <v>8.307793</v>
       </c>
       <c r="O14">
-        <v>0.5039562241205586</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="P14">
-        <v>0.5039562241205585</v>
+        <v>0.1388016358751757</v>
       </c>
       <c r="Q14">
-        <v>13.87299469054867</v>
+        <v>0.03911401253211112</v>
       </c>
       <c r="R14">
-        <v>124.856952214938</v>
+        <v>0.352026112789</v>
       </c>
       <c r="S14">
-        <v>0.1041203149651378</v>
+        <v>0.0009785983612060935</v>
       </c>
       <c r="T14">
-        <v>0.1041203149651378</v>
+        <v>0.0009785983612060933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H15">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I15">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J15">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.484487666666666</v>
+        <v>1.484487666666667</v>
       </c>
       <c r="N15">
-        <v>4.453462999999999</v>
+        <v>4.453463</v>
       </c>
       <c r="O15">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="P15">
-        <v>0.03800378711503639</v>
+        <v>0.07440579582442265</v>
       </c>
       <c r="Q15">
-        <v>1.046174869231333</v>
+        <v>0.02096739863322222</v>
       </c>
       <c r="R15">
-        <v>9.415573823081999</v>
+        <v>0.188706587699</v>
       </c>
       <c r="S15">
-        <v>0.007851805563451148</v>
+        <v>0.0005245859632626827</v>
       </c>
       <c r="T15">
-        <v>0.007851805563451148</v>
+        <v>0.0005245859632626826</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H16">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I16">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J16">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1249006666666667</v>
+        <v>0.1509683333333333</v>
       </c>
       <c r="N16">
-        <v>0.374702</v>
+        <v>0.452905</v>
       </c>
       <c r="O16">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="P16">
-        <v>0.003197533029819349</v>
+        <v>0.007566865820567083</v>
       </c>
       <c r="Q16">
-        <v>0.08802224602533333</v>
+        <v>0.002132327062777778</v>
       </c>
       <c r="R16">
-        <v>0.792200214228</v>
+        <v>0.019190943565</v>
       </c>
       <c r="S16">
-        <v>0.0006606290988016006</v>
+        <v>5.334895691094442E-05</v>
       </c>
       <c r="T16">
-        <v>0.0006606290988016005</v>
+        <v>5.334895691094442E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.704738</v>
+        <v>0.01412433333333333</v>
       </c>
       <c r="H17">
-        <v>2.114214</v>
+        <v>0.042373</v>
       </c>
       <c r="I17">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606629</v>
       </c>
       <c r="J17">
-        <v>0.20660587166442</v>
+        <v>0.007050337375606628</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.76686133333333</v>
+        <v>15.54651666666667</v>
       </c>
       <c r="N17">
-        <v>53.30058399999999</v>
+        <v>46.63955</v>
       </c>
       <c r="O17">
-        <v>0.4548424557345857</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="P17">
-        <v>0.4548424557345856</v>
+        <v>0.7792257024798346</v>
       </c>
       <c r="Q17">
-        <v>12.52098232233067</v>
+        <v>0.2195841835722222</v>
       </c>
       <c r="R17">
-        <v>112.688840900976</v>
+        <v>1.97625765215</v>
       </c>
       <c r="S17">
-        <v>0.09397312203702946</v>
+        <v>0.005493804094226908</v>
       </c>
       <c r="T17">
-        <v>0.09397312203702944</v>
+        <v>0.005493804094226908</v>
       </c>
     </row>
   </sheetData>
